--- a/dokumentation/Bewertungsbogen_JumpOrDie.xlsx
+++ b/dokumentation/Bewertungsbogen_JumpOrDie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\IdeaProjects\JumpOrDie\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25249F2-F986-49D7-8C81-EE83A345A37F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75D85E2-1B71-4816-AAD0-0CB901E74D4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1732,6 +1732,9 @@
       <c r="L2">
         <v>3</v>
       </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
       <c r="N2">
         <v>3</v>
       </c>
@@ -1743,11 +1746,11 @@
       </c>
       <c r="Q2" s="3">
         <f t="shared" ref="Q2:Q33" si="0">SUM(G2:P2)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S2" s="3">
         <f>VLOOKUP(Q2,Notenspiegel!$D$17:$E$47,2,0)</f>
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1784,6 +1787,9 @@
       <c r="L3">
         <v>3</v>
       </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
       <c r="N3">
         <v>3</v>
       </c>
@@ -1795,11 +1801,11 @@
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S3" s="3">
         <f>VLOOKUP(Q3,Notenspiegel!$D$17:$E$47,2,0)</f>
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1812,6 +1818,9 @@
       <c r="D4" t="s">
         <v>64</v>
       </c>
+      <c r="E4">
+        <v>37478</v>
+      </c>
       <c r="F4" t="s">
         <v>68</v>
       </c>
@@ -1833,6 +1842,9 @@
       <c r="L4">
         <v>3</v>
       </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
       <c r="N4">
         <v>3</v>
       </c>
@@ -1844,11 +1856,11 @@
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S4" s="3">
         <f>VLOOKUP(Q4,Notenspiegel!$D$17:$E$47,2,0)</f>
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1885,6 +1897,9 @@
       <c r="L5">
         <v>3</v>
       </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
       <c r="N5">
         <v>3</v>
       </c>
@@ -1896,11 +1911,11 @@
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S5" s="3">
         <f>VLOOKUP(Q5,Notenspiegel!$D$17:$E$47,2,0)</f>
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2505,7 +2520,7 @@
     </row>
     <row r="66" spans="17:19" x14ac:dyDescent="0.3">
       <c r="Q66" s="3">
-        <f t="shared" ref="Q66:Q97" si="2">SUM(G66:P66)</f>
+        <f t="shared" ref="Q66:Q80" si="2">SUM(G66:P66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="3">
@@ -3368,7 +3383,7 @@
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O66">
-        <f t="shared" ref="O66:O97" si="2">SUM(E66:N66)</f>
+        <f t="shared" ref="O66:O79" si="2">SUM(E66:N66)</f>
         <v>0</v>
       </c>
       <c r="P66" s="4">
@@ -3936,7 +3951,7 @@
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G66">
-        <f t="shared" ref="G66:G97" si="2">(E66+(F66*2))/3</f>
+        <f t="shared" ref="G66:G80" si="2">(E66+(F66*2))/3</f>
         <v>0</v>
       </c>
     </row>
